--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -14,126 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Absentees</t>
   </si>
   <si>
-    <t>AANYA JAIN</t>
-  </si>
-  <si>
-    <t>AARAV DUA</t>
-  </si>
-  <si>
     <t>AAYUSH GUPTA</t>
   </si>
   <si>
-    <t>AKSHITA PURI</t>
-  </si>
-  <si>
-    <t>ANSHIKA</t>
-  </si>
-  <si>
     <t>ARNAV SHARMA</t>
   </si>
   <si>
     <t>AROUSH SETH</t>
   </si>
   <si>
-    <t>ARSHIA KHAUND</t>
-  </si>
-  <si>
-    <t>ARYAN WALIA</t>
-  </si>
-  <si>
-    <t>AVNI AGGARWAL</t>
-  </si>
-  <si>
-    <t>BHAVYA ARORA</t>
-  </si>
-  <si>
     <t>BHAVYA SHARMA</t>
   </si>
   <si>
     <t>DREESHTI KAPOOR</t>
   </si>
   <si>
-    <t>DIPIN PANDEY</t>
-  </si>
-  <si>
-    <t>DEVANSH PANDEYA</t>
-  </si>
-  <si>
-    <t>EKAANSH GABA</t>
-  </si>
-  <si>
-    <t>ISHANI JHA</t>
-  </si>
-  <si>
     <t>IHINA ROY</t>
   </si>
   <si>
     <t>LAKSHAY MALHOTRA</t>
   </si>
   <si>
-    <t>KASHIKA TAYAL</t>
-  </si>
-  <si>
-    <t>JIAH BAJAJ</t>
-  </si>
-  <si>
-    <t>MAHI WADHWA</t>
-  </si>
-  <si>
     <t>PANKAJ</t>
   </si>
   <si>
     <t>PARTH GUPTA</t>
   </si>
   <si>
-    <t>PRATHAM SHARMA</t>
-  </si>
-  <si>
-    <t>RANVEER SOLANKI</t>
-  </si>
-  <si>
-    <t>RENNIE GUPTA</t>
-  </si>
-  <si>
-    <t>RIHIT RAI</t>
-  </si>
-  <si>
-    <t>RISHABH SINGH</t>
-  </si>
-  <si>
-    <t>ROUNAK BISWAS</t>
-  </si>
-  <si>
-    <t>RUDRA VIJ</t>
-  </si>
-  <si>
-    <t>SANYAM MATHUR</t>
-  </si>
-  <si>
-    <t>SASHVI SINGLA</t>
-  </si>
-  <si>
-    <t>SHARVI SINGHAL</t>
-  </si>
-  <si>
     <t>SUMAN</t>
-  </si>
-  <si>
-    <t>UNNABH BHALLA</t>
-  </si>
-  <si>
-    <t>VANSHIKA ARYA</t>
-  </si>
-  <si>
-    <t>YANA VIG</t>
-  </si>
-  <si>
-    <t>YUVRAJ MALIK</t>
   </si>
 </sst>
 </file>
@@ -491,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,238 +495,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Absentees</t>
   </si>
@@ -22,7 +22,10 @@
     <t>AAYUSH GUPTA</t>
   </si>
   <si>
-    <t>ARNAV SHARMA</t>
+    <t>AKSHITA PURI</t>
+  </si>
+  <si>
+    <t>ANSHIKA</t>
   </si>
   <si>
     <t>AROUSH SETH</t>
@@ -34,19 +37,31 @@
     <t>DREESHTI KAPOOR</t>
   </si>
   <si>
-    <t>IHINA ROY</t>
-  </si>
-  <si>
-    <t>LAKSHAY MALHOTRA</t>
+    <t>ISHANI JHA</t>
   </si>
   <si>
     <t>PANKAJ</t>
   </si>
   <si>
-    <t>PARTH GUPTA</t>
+    <t>PRATHAM SHARMA</t>
+  </si>
+  <si>
+    <t>RIHIT RAI</t>
+  </si>
+  <si>
+    <t>RISHABH SINGH</t>
   </si>
   <si>
     <t>SUMAN</t>
+  </si>
+  <si>
+    <t>UNNABH BHALLA</t>
+  </si>
+  <si>
+    <t>VANSHIKA ARYA</t>
+  </si>
+  <si>
+    <t>YUVRAJ MALIK</t>
   </si>
 </sst>
 </file>
@@ -404,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,6 +510,46 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Absentees</t>
   </si>
   <si>
+    <t>AANYA JAIN</t>
+  </si>
+  <si>
+    <t>AARAV DUA</t>
+  </si>
+  <si>
     <t>AAYUSH GUPTA</t>
   </si>
   <si>
@@ -28,34 +34,37 @@
     <t>ANSHIKA</t>
   </si>
   <si>
-    <t>AROUSH SETH</t>
-  </si>
-  <si>
-    <t>BHAVYA SHARMA</t>
+    <t>ARYAN WALIA</t>
   </si>
   <si>
     <t>DREESHTI KAPOOR</t>
   </si>
   <si>
+    <t>DIPIN PANDEY</t>
+  </si>
+  <si>
     <t>ISHANI JHA</t>
   </si>
   <si>
+    <t>MAHI WADHWA</t>
+  </si>
+  <si>
     <t>PANKAJ</t>
   </si>
   <si>
+    <t>PARTH GUPTA</t>
+  </si>
+  <si>
     <t>PRATHAM SHARMA</t>
   </si>
   <si>
-    <t>RIHIT RAI</t>
+    <t>RENNIE GUPTA</t>
   </si>
   <si>
     <t>RISHABH SINGH</t>
   </si>
   <si>
     <t>SUMAN</t>
-  </si>
-  <si>
-    <t>UNNABH BHALLA</t>
   </si>
   <si>
     <t>VANSHIKA ARYA</t>
@@ -419,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,6 +559,30 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Absentees</t>
   </si>
@@ -25,28 +25,37 @@
     <t>AARAV DUA</t>
   </si>
   <si>
-    <t>AAYUSH GUPTA</t>
-  </si>
-  <si>
     <t>AKSHITA PURI</t>
   </si>
   <si>
     <t>ANSHIKA</t>
   </si>
   <si>
+    <t>ARNAV SHARMA</t>
+  </si>
+  <si>
+    <t>ARSHIA KHAUND</t>
+  </si>
+  <si>
     <t>ARYAN WALIA</t>
   </si>
   <si>
-    <t>DREESHTI KAPOOR</t>
+    <t>BHAVYA SHARMA</t>
   </si>
   <si>
     <t>DIPIN PANDEY</t>
   </si>
   <si>
+    <t>EKAANSH GABA</t>
+  </si>
+  <si>
     <t>ISHANI JHA</t>
   </si>
   <si>
-    <t>MAHI WADHWA</t>
+    <t>KASHIKA TAYAL</t>
+  </si>
+  <si>
+    <t>JIAH BAJAJ</t>
   </si>
   <si>
     <t>PANKAJ</t>
@@ -61,16 +70,22 @@
     <t>RENNIE GUPTA</t>
   </si>
   <si>
+    <t>RIHIT RAI</t>
+  </si>
+  <si>
     <t>RISHABH SINGH</t>
   </si>
   <si>
+    <t>ROUNAK BISWAS</t>
+  </si>
+  <si>
     <t>SUMAN</t>
   </si>
   <si>
+    <t>UNNABH BHALLA</t>
+  </si>
+  <si>
     <t>VANSHIKA ARYA</t>
-  </si>
-  <si>
-    <t>YUVRAJ MALIK</t>
   </si>
 </sst>
 </file>
@@ -428,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,6 +598,46 @@
         <v>18</v>
       </c>
     </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Absentees</t>
   </si>
@@ -25,39 +25,69 @@
     <t>AARAV DUA</t>
   </si>
   <si>
+    <t>AAYUSH GUPTA</t>
+  </si>
+  <si>
     <t>AKSHITA PURI</t>
   </si>
   <si>
+    <t>ANEESH RAMAN</t>
+  </si>
+  <si>
     <t>ANSHIKA</t>
   </si>
   <si>
     <t>ARNAV SHARMA</t>
   </si>
   <si>
+    <t>AROUSH SETH</t>
+  </si>
+  <si>
     <t>ARSHIA KHAUND</t>
   </si>
   <si>
     <t>ARYAN WALIA</t>
   </si>
   <si>
+    <t>AVNI AGGARWAL</t>
+  </si>
+  <si>
+    <t>BHAVYA ARORA</t>
+  </si>
+  <si>
     <t>BHAVYA SHARMA</t>
   </si>
   <si>
+    <t>DREESHTI KAPOOR</t>
+  </si>
+  <si>
     <t>DIPIN PANDEY</t>
   </si>
   <si>
+    <t>DEVANSH PANDEYA</t>
+  </si>
+  <si>
     <t>EKAANSH GABA</t>
   </si>
   <si>
     <t>ISHANI JHA</t>
   </si>
   <si>
+    <t>IHINA ROY</t>
+  </si>
+  <si>
+    <t>LAKSHAY MALHOTRA</t>
+  </si>
+  <si>
     <t>KASHIKA TAYAL</t>
   </si>
   <si>
     <t>JIAH BAJAJ</t>
   </si>
   <si>
+    <t>MAHI WADHWA</t>
+  </si>
+  <si>
     <t>PANKAJ</t>
   </si>
   <si>
@@ -67,6 +97,9 @@
     <t>PRATHAM SHARMA</t>
   </si>
   <si>
+    <t>RANVEER SOLANKI</t>
+  </si>
+  <si>
     <t>RENNIE GUPTA</t>
   </si>
   <si>
@@ -79,6 +112,18 @@
     <t>ROUNAK BISWAS</t>
   </si>
   <si>
+    <t>RUDRA VIJ</t>
+  </si>
+  <si>
+    <t>SANYAM MATHUR</t>
+  </si>
+  <si>
+    <t>SASHVI SINGLA</t>
+  </si>
+  <si>
+    <t>SHARVI SINGHAL</t>
+  </si>
+  <si>
     <t>SUMAN</t>
   </si>
   <si>
@@ -86,6 +131,12 @@
   </si>
   <si>
     <t>VANSHIKA ARYA</t>
+  </si>
+  <si>
+    <t>YANA VIG</t>
+  </si>
+  <si>
+    <t>YUVRAJ MALIK</t>
   </si>
 </sst>
 </file>
@@ -443,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -638,6 +689,142 @@
         <v>23</v>
       </c>
     </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Absentees</t>
   </si>
@@ -22,108 +22,45 @@
     <t>AANYA JAIN</t>
   </si>
   <si>
-    <t>AARAV DUA</t>
-  </si>
-  <si>
     <t>AAYUSH GUPTA</t>
   </si>
   <si>
     <t>AKSHITA PURI</t>
   </si>
   <si>
-    <t>ANEESH RAMAN</t>
-  </si>
-  <si>
     <t>ANSHIKA</t>
   </si>
   <si>
-    <t>ARNAV SHARMA</t>
-  </si>
-  <si>
-    <t>AROUSH SETH</t>
-  </si>
-  <si>
-    <t>ARSHIA KHAUND</t>
-  </si>
-  <si>
-    <t>ARYAN WALIA</t>
-  </si>
-  <si>
     <t>AVNI AGGARWAL</t>
   </si>
   <si>
-    <t>BHAVYA ARORA</t>
-  </si>
-  <si>
     <t>BHAVYA SHARMA</t>
   </si>
   <si>
-    <t>DREESHTI KAPOOR</t>
-  </si>
-  <si>
-    <t>DIPIN PANDEY</t>
-  </si>
-  <si>
-    <t>DEVANSH PANDEYA</t>
-  </si>
-  <si>
-    <t>EKAANSH GABA</t>
-  </si>
-  <si>
     <t>ISHANI JHA</t>
   </si>
   <si>
     <t>IHINA ROY</t>
   </si>
   <si>
-    <t>LAKSHAY MALHOTRA</t>
-  </si>
-  <si>
     <t>KASHIKA TAYAL</t>
   </si>
   <si>
-    <t>JIAH BAJAJ</t>
-  </si>
-  <si>
     <t>MAHI WADHWA</t>
   </si>
   <si>
-    <t>PANKAJ</t>
-  </si>
-  <si>
-    <t>PARTH GUPTA</t>
-  </si>
-  <si>
     <t>PRATHAM SHARMA</t>
   </si>
   <si>
     <t>RANVEER SOLANKI</t>
   </si>
   <si>
-    <t>RENNIE GUPTA</t>
-  </si>
-  <si>
-    <t>RIHIT RAI</t>
-  </si>
-  <si>
     <t>RISHABH SINGH</t>
   </si>
   <si>
     <t>ROUNAK BISWAS</t>
   </si>
   <si>
-    <t>RUDRA VIJ</t>
-  </si>
-  <si>
-    <t>SANYAM MATHUR</t>
-  </si>
-  <si>
-    <t>SASHVI SINGLA</t>
-  </si>
-  <si>
-    <t>SHARVI SINGHAL</t>
-  </si>
-  <si>
     <t>SUMAN</t>
   </si>
   <si>
@@ -131,12 +68,6 @@
   </si>
   <si>
     <t>VANSHIKA ARYA</t>
-  </si>
-  <si>
-    <t>YANA VIG</t>
-  </si>
-  <si>
-    <t>YUVRAJ MALIK</t>
   </si>
 </sst>
 </file>
@@ -494,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -641,190 +572,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,99 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Absentees</t>
-  </si>
-  <si>
-    <t>AANYA JAIN</t>
-  </si>
-  <si>
-    <t>AAYUSH GUPTA</t>
-  </si>
-  <si>
-    <t>AKSHITA PURI</t>
-  </si>
-  <si>
-    <t>ANSHIKA</t>
-  </si>
-  <si>
-    <t>AVNI AGGARWAL</t>
-  </si>
-  <si>
-    <t>BHAVYA SHARMA</t>
-  </si>
-  <si>
-    <t>ISHANI JHA</t>
-  </si>
-  <si>
-    <t>IHINA ROY</t>
-  </si>
-  <si>
-    <t>KASHIKA TAYAL</t>
-  </si>
-  <si>
-    <t>MAHI WADHWA</t>
-  </si>
-  <si>
-    <t>PRATHAM SHARMA</t>
-  </si>
-  <si>
-    <t>RANVEER SOLANKI</t>
-  </si>
-  <si>
-    <t>RISHABH SINGH</t>
-  </si>
-  <si>
-    <t>ROUNAK BISWAS</t>
-  </si>
-  <si>
-    <t>SUMAN</t>
-  </si>
-  <si>
-    <t>UNNABH BHALLA</t>
-  </si>
-  <si>
-    <t>VANSHIKA ARYA</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -108,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -127,16 +57,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -424,155 +421,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Absentees</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AAYUSH GUPTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ANSHIKA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ISHANI JHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LAKSHAY MALHOTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PARTH GUPTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PRATHAM SHARMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ROUNAK BISWAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SUMAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>VANSHIKA ARYA</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ISHANI JHA</t>
+          <t>BHAVYA SHARMA</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAKSHAY MALHOTRA</t>
+          <t>ISHANI JHA</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PARTH GUPTA</t>
+          <t>KASHIKA TAYAL</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PRATHAM SHARMA</t>
+          <t>PANKAJ</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ROUNAK BISWAS</t>
+          <t>PARTH GUPTA</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SUMAN</t>
+          <t>ROUNAK BISWAS</t>
         </is>
       </c>
     </row>
@@ -526,6 +526,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
+        <is>
+          <t>SUMAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>VANSHIKA ARYA</t>
         </is>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ANSHIKA</t>
+          <t>AKSHITA PURI</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ISHANI JHA</t>
+          <t>DREESHTI KAPOOR</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KASHIKA TAYAL</t>
+          <t>EKAANSH GABA</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PANKAJ</t>
+          <t>KASHIKA TAYAL</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PARTH GUPTA</t>
+          <t>ROUNAK BISWAS</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ROUNAK BISWAS</t>
+          <t>SUMAN</t>
         </is>
       </c>
     </row>
@@ -527,17 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SUMAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>VANSHIKA ARYA</t>
+          <t>YUVRAJ MALIK</t>
         </is>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AKSHITA PURI</t>
+          <t>ANSHIKA</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BHAVYA SHARMA</t>
+          <t>ARNAV SHARMA</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DREESHTI KAPOOR</t>
+          <t>ISHANI JHA</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EKAANSH GABA</t>
+          <t>PANKAJ</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KASHIKA TAYAL</t>
+          <t>ROUNAK BISWAS</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ROUNAK BISWAS</t>
+          <t>SUMAN</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SUMAN</t>
+          <t>UNNABH BHALLA</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>YUVRAJ MALIK</t>
+          <t>VANSHIKA ARYA</t>
         </is>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ARNAV SHARMA</t>
+          <t>BHAVYA SHARMA</t>
         </is>
       </c>
     </row>
@@ -477,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ISHANI JHA</t>
+          <t>DIPIN PANDEY</t>
         </is>
       </c>
     </row>
@@ -487,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PANKAJ</t>
+          <t>ISHANI JHA</t>
         </is>
       </c>
     </row>
@@ -497,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ROUNAK BISWAS</t>
+          <t>MAHI WADHWA</t>
         </is>
       </c>
     </row>
@@ -507,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SUMAN</t>
+          <t>PANKAJ</t>
         </is>
       </c>
     </row>
@@ -517,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UNNABH BHALLA</t>
+          <t>PARTH GUPTA</t>
         </is>
       </c>
     </row>
@@ -527,7 +526,67 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>PRATHAM SHARMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RENNIE GUPTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SANYAM MATHUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SUMAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>UNNABH BHALLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>VANSHIKA ARYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>YUVRAJ MALIK</t>
         </is>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AAYUSH GUPTA</t>
+          <t>AANYA JAIN</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ANSHIKA</t>
+          <t>AARAV DUA</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BHAVYA SHARMA</t>
+          <t>AAYUSH GUPTA</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DIPIN PANDEY</t>
+          <t>AKSHITA PURI</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ISHANI JHA</t>
+          <t>ANSHIKA</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAHI WADHWA</t>
+          <t>ARNAV SHARMA</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PANKAJ</t>
+          <t>AROUSH SETH</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PARTH GUPTA</t>
+          <t>BHAVYA SHARMA</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PRATHAM SHARMA</t>
+          <t>DIPIN PANDEY</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RENNIE GUPTA</t>
+          <t>ISHANI JHA</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SANYAM MATHUR</t>
+          <t>LAKSHAY MALHOTRA</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SUMAN</t>
+          <t>KASHIKA TAYAL</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>UNNABH BHALLA</t>
+          <t>MAHI WADHWA</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VANSHIKA ARYA</t>
+          <t>PANKAJ</t>
         </is>
       </c>
     </row>
@@ -585,6 +585,76 @@
         <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
+        <is>
+          <t>PRATHAM SHARMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RANVEER SOLANKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RISHABH SINGH</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ROUNAK BISWAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SUMAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>UNNABH BHALLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VANSHIKA ARYA</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>YUVRAJ MALIK</t>
         </is>
